--- a/simulation_data/iterative_algorithm/i_error_level_7_percent_water_60.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_7_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.92145681173217</v>
+        <v>91.50114425002697</v>
       </c>
       <c r="D2" t="n">
-        <v>10.62496867317868</v>
+        <v>9.542883292349186</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.43682653434151</v>
+        <v>88.26688417033144</v>
       </c>
       <c r="D3" t="n">
-        <v>11.28674709528821</v>
+        <v>10.63964770638291</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.22203270218121</v>
+        <v>90.35199940943852</v>
       </c>
       <c r="D4" t="n">
-        <v>10.38765495487836</v>
+        <v>8.143874658209301</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.33452174604736</v>
+        <v>87.00481400230547</v>
       </c>
       <c r="D5" t="n">
-        <v>10.93002507790078</v>
+        <v>9.985216116929118</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.41174749881493</v>
+        <v>85.95719861312817</v>
       </c>
       <c r="D6" t="n">
-        <v>11.28335850675259</v>
+        <v>10.55673165761233</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>86.47557146779508</v>
+        <v>83.36955901832231</v>
       </c>
       <c r="D7" t="n">
-        <v>11.34410450839881</v>
+        <v>10.04116934439219</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.35314684971479</v>
+        <v>83.06979552048942</v>
       </c>
       <c r="D8" t="n">
-        <v>10.32312387670516</v>
+        <v>9.218653745847893</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.33629715464559</v>
+        <v>84.74727288545587</v>
       </c>
       <c r="D9" t="n">
-        <v>10.47351323080002</v>
+        <v>9.421284763655857</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.54422565202707</v>
+        <v>80.94813540330475</v>
       </c>
       <c r="D10" t="n">
-        <v>10.27872051938685</v>
+        <v>8.759482058907631</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.73854557882291</v>
+        <v>81.28928072547252</v>
       </c>
       <c r="D11" t="n">
-        <v>10.62295128192659</v>
+        <v>9.429253329648592</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.39636197219801</v>
+        <v>80.46681839761908</v>
       </c>
       <c r="D12" t="n">
-        <v>11.28304114247297</v>
+        <v>9.848784198820756</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.72741773924669</v>
+        <v>78.0334617540977</v>
       </c>
       <c r="D13" t="n">
-        <v>10.50734993875112</v>
+        <v>10.69696896713741</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.39205908801573</v>
+        <v>77.48331865314886</v>
       </c>
       <c r="D14" t="n">
-        <v>10.30269786442455</v>
+        <v>8.739942971586816</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.00694292902338</v>
+        <v>77.75225015744815</v>
       </c>
       <c r="D15" t="n">
-        <v>9.700527985822054</v>
+        <v>9.348964020460265</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.46351007690673</v>
+        <v>75.62200668209096</v>
       </c>
       <c r="D16" t="n">
-        <v>10.31453806851955</v>
+        <v>10.06853888197018</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.06133304290817</v>
+        <v>76.876626676489</v>
       </c>
       <c r="D17" t="n">
-        <v>10.53090172301948</v>
+        <v>11.95550212177248</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.93565489570888</v>
+        <v>73.8845713945083</v>
       </c>
       <c r="D18" t="n">
-        <v>10.3758265610183</v>
+        <v>8.701482418994404</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.99836996430685</v>
+        <v>73.5529274182268</v>
       </c>
       <c r="D19" t="n">
-        <v>11.11148085712284</v>
+        <v>9.426124849019127</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.7007587125632</v>
+        <v>72.36921366711181</v>
       </c>
       <c r="D20" t="n">
-        <v>11.07308916433023</v>
+        <v>9.238981240984133</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>69.95328378362923</v>
+        <v>69.59233464612684</v>
       </c>
       <c r="D21" t="n">
-        <v>11.07327963789972</v>
+        <v>9.911365463202229</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>68.5411192532752</v>
+        <v>71.18520858784377</v>
       </c>
       <c r="D22" t="n">
-        <v>8.930269399225081</v>
+        <v>8.038222808736911</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.62757053079308</v>
+        <v>69.18490141396447</v>
       </c>
       <c r="D23" t="n">
-        <v>10.54372147377723</v>
+        <v>9.41162763664696</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>70.29731350982061</v>
+        <v>69.64495934062785</v>
       </c>
       <c r="D24" t="n">
-        <v>10.62557984856887</v>
+        <v>9.650903428700726</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.28451809794528</v>
+        <v>67.21359187923085</v>
       </c>
       <c r="D25" t="n">
-        <v>9.56898823699856</v>
+        <v>8.948791957123152</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.02548658651395</v>
+        <v>66.05484277015466</v>
       </c>
       <c r="D26" t="n">
-        <v>10.94455439962245</v>
+        <v>10.55178242854559</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.68597440484862</v>
+        <v>64.17426829956521</v>
       </c>
       <c r="D27" t="n">
-        <v>10.0734039430123</v>
+        <v>9.839948416003297</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.81338996243355</v>
+        <v>64.15271864344136</v>
       </c>
       <c r="D28" t="n">
-        <v>9.68311962049216</v>
+        <v>8.843175051316367</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.08924077446876</v>
+        <v>63.99706402476509</v>
       </c>
       <c r="D29" t="n">
-        <v>10.65509806833798</v>
+        <v>10.16318716804236</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.74099098872655</v>
+        <v>61.03409636099806</v>
       </c>
       <c r="D30" t="n">
-        <v>9.885708214275242</v>
+        <v>9.808271074511786</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.30661751824829</v>
+        <v>61.07416018158119</v>
       </c>
       <c r="D31" t="n">
-        <v>9.566779681865372</v>
+        <v>10.91255960318854</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.8085236912676</v>
+        <v>59.00496139056333</v>
       </c>
       <c r="D32" t="n">
-        <v>9.36193711989997</v>
+        <v>10.28304192763306</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.10620955510532</v>
+        <v>58.89587034932229</v>
       </c>
       <c r="D33" t="n">
-        <v>11.36649343579264</v>
+        <v>10.90646791909685</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.53933999214971</v>
+        <v>57.06556279169057</v>
       </c>
       <c r="D34" t="n">
-        <v>10.75902205218693</v>
+        <v>10.07603930143587</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.99921171897731</v>
+        <v>57.93733449296587</v>
       </c>
       <c r="D35" t="n">
-        <v>8.709984645388387</v>
+        <v>10.01791793105156</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>54.12665156510612</v>
+        <v>55.8084664174504</v>
       </c>
       <c r="D36" t="n">
-        <v>10.47181497315409</v>
+        <v>9.725795720505387</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.88266999822576</v>
+        <v>53.95815398227222</v>
       </c>
       <c r="D37" t="n">
-        <v>10.12524174367239</v>
+        <v>9.786672408937299</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.71621065400797</v>
+        <v>54.25661848640179</v>
       </c>
       <c r="D38" t="n">
-        <v>10.14034654880997</v>
+        <v>10.80991752908947</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.01976212228056</v>
+        <v>51.7751508014893</v>
       </c>
       <c r="D39" t="n">
-        <v>11.81865133846764</v>
+        <v>9.713177445289539</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.45373673788004</v>
+        <v>54.44896127818677</v>
       </c>
       <c r="D40" t="n">
-        <v>9.853193101380704</v>
+        <v>10.43045733021389</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.48548807690287</v>
+        <v>50.67117200746287</v>
       </c>
       <c r="D41" t="n">
-        <v>10.52590563424754</v>
+        <v>10.60163663824512</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>51.97264719739486</v>
+        <v>51.6166087472956</v>
       </c>
       <c r="D42" t="n">
-        <v>12.47089544918786</v>
+        <v>11.21581549993416</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.08166761075872</v>
+        <v>47.89312049063712</v>
       </c>
       <c r="D43" t="n">
-        <v>11.07389924550527</v>
+        <v>9.921873110297202</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.46915883833786</v>
+        <v>48.9686066411002</v>
       </c>
       <c r="D44" t="n">
-        <v>11.06503887734368</v>
+        <v>10.41941690951266</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>45.85012384239229</v>
+        <v>46.65318407603919</v>
       </c>
       <c r="D45" t="n">
-        <v>11.32929127117866</v>
+        <v>11.25078009951392</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>44.97073451707654</v>
+        <v>47.22143711009193</v>
       </c>
       <c r="D46" t="n">
-        <v>9.408921042111654</v>
+        <v>10.32440581824961</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>43.75609115957964</v>
+        <v>46.97173610997503</v>
       </c>
       <c r="D47" t="n">
-        <v>10.75612530614969</v>
+        <v>9.92044514402043</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.21831990542258</v>
+        <v>41.87884044614322</v>
       </c>
       <c r="D48" t="n">
-        <v>9.805996762310738</v>
+        <v>11.29355288500155</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>44.21448886017661</v>
+        <v>43.05613689083102</v>
       </c>
       <c r="D49" t="n">
-        <v>10.77332321662051</v>
+        <v>10.50994711892554</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.45391030990962</v>
+        <v>40.86847462225123</v>
       </c>
       <c r="D50" t="n">
-        <v>10.47784555829053</v>
+        <v>10.10771252339614</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>39.18027409025411</v>
+        <v>41.97732799187964</v>
       </c>
       <c r="D51" t="n">
-        <v>9.929119452114694</v>
+        <v>11.18880322081447</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.20409643196772</v>
+        <v>40.71476422905477</v>
       </c>
       <c r="D52" t="n">
-        <v>10.67928629117027</v>
+        <v>10.16571075153066</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.91204279659696</v>
+        <v>39.11782708151765</v>
       </c>
       <c r="D53" t="n">
-        <v>10.19720086510497</v>
+        <v>10.40491473162328</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.14971338912713</v>
+        <v>37.60481503278255</v>
       </c>
       <c r="D54" t="n">
-        <v>10.29925674883484</v>
+        <v>10.57358605075921</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>38.75302839141521</v>
+        <v>35.84840030222929</v>
       </c>
       <c r="D55" t="n">
-        <v>10.35439540277244</v>
+        <v>10.18586114082919</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.08626602222596</v>
+        <v>34.99624649583088</v>
       </c>
       <c r="D56" t="n">
-        <v>10.49166156135619</v>
+        <v>9.945571871438339</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.87297303359878</v>
+        <v>34.94827867628698</v>
       </c>
       <c r="D57" t="n">
-        <v>9.656078999474445</v>
+        <v>10.21622112484897</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.87676830358765</v>
+        <v>33.15368234094583</v>
       </c>
       <c r="D58" t="n">
-        <v>10.7415436410429</v>
+        <v>10.50016201156678</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.54735964550217</v>
+        <v>32.63751605630045</v>
       </c>
       <c r="D59" t="n">
-        <v>10.97587548752149</v>
+        <v>9.615619240785145</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.85762872607454</v>
+        <v>31.81997834490123</v>
       </c>
       <c r="D60" t="n">
-        <v>9.702144302796023</v>
+        <v>11.9196478757148</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>29.51910780518729</v>
+        <v>30.751339770031</v>
       </c>
       <c r="D61" t="n">
-        <v>9.211502339457647</v>
+        <v>12.22555777632042</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>31.76082541806172</v>
+        <v>30.3616279059691</v>
       </c>
       <c r="D62" t="n">
-        <v>10.85896539197167</v>
+        <v>10.50043859321221</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.55187780012184</v>
+        <v>27.55761958383965</v>
       </c>
       <c r="D63" t="n">
-        <v>10.70562770876993</v>
+        <v>10.65610734600651</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.29293251781866</v>
+        <v>26.81068650475654</v>
       </c>
       <c r="D64" t="n">
-        <v>9.885572141999393</v>
+        <v>11.34452145888595</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.23432726829431</v>
+        <v>26.54802431448812</v>
       </c>
       <c r="D65" t="n">
-        <v>9.385511535137784</v>
+        <v>10.93621311664369</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.7321147760132</v>
+        <v>26.15525583457525</v>
       </c>
       <c r="D66" t="n">
-        <v>10.34869615397888</v>
+        <v>9.929728588972404</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.07065242283839</v>
+        <v>24.39979514067142</v>
       </c>
       <c r="D67" t="n">
-        <v>10.69850021313122</v>
+        <v>10.44831141158856</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.36004750605547</v>
+        <v>23.34925724830851</v>
       </c>
       <c r="D68" t="n">
-        <v>11.23064759146468</v>
+        <v>9.139711732649596</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.53164653048906</v>
+        <v>24.3781572252303</v>
       </c>
       <c r="D69" t="n">
-        <v>10.20465030451873</v>
+        <v>10.87165916114202</v>
       </c>
     </row>
   </sheetData>
